--- a/ohyes_quality_report.xlsx
+++ b/ohyes_quality_report.xlsx
@@ -388,7 +388,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>11783</v>
+        <v>11854</v>
       </c>
     </row>
     <row r="3">
@@ -398,7 +398,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>11743</v>
+        <v>11814</v>
       </c>
       <c r="C3">
         <v>99.66</v>
@@ -424,10 +424,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>10470</v>
+        <v>10530</v>
       </c>
       <c r="C5">
-        <v>88.86</v>
+        <v>88.83</v>
       </c>
     </row>
     <row r="6">
@@ -437,10 +437,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>1148</v>
+        <v>1159</v>
       </c>
       <c r="C6">
-        <v>9.74</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -450,10 +450,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>11720</v>
+        <v>11790</v>
       </c>
       <c r="C7">
-        <v>99.47</v>
+        <v>99.45999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -463,10 +463,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>9691</v>
+        <v>9757</v>
       </c>
       <c r="C8">
-        <v>82.25</v>
+        <v>82.31</v>
       </c>
     </row>
     <row r="9">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>1235.11</v>
+        <v>1234.25</v>
       </c>
     </row>
     <row r="11">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>1343.68</v>
+        <v>1339.82</v>
       </c>
     </row>
     <row r="12">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>95.58</v>
+        <v>95.61</v>
       </c>
     </row>
     <row r="15">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>16.17</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>10618</v>
+        <v>10689</v>
       </c>
     </row>
     <row r="19">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>90.11</v>
+        <v>90.17</v>
       </c>
     </row>
     <row r="20">
@@ -591,7 +591,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="E20">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F20">
         <v>251</v>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="E36">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F36">
         <v>568</v>
@@ -2205,92 +2205,92 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>037671</t>
+          <t>034280</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tuslaw High School</t>
+          <t>Brookside Middle School</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Tuslaw Local</t>
+          <t>Sheffield-Sheffield Lake City</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Stark</t>
+          <t>Lorain</t>
         </is>
       </c>
       <c r="E49">
-        <v>138</v>
+        <v>69</v>
+      </c>
+      <c r="F49">
+        <v>222</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>040584</t>
+          <t>037671</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tiffin Middle School</t>
+          <t>Tuslaw High School</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Tiffin City Schools</t>
+          <t>Tuslaw Local</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Seneca</t>
+          <t>Stark</t>
         </is>
       </c>
       <c r="E50">
-        <v>154</v>
-      </c>
-      <c r="F50">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>040931</t>
+          <t>040584</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Wheelersburg High School</t>
+          <t>Tiffin Middle School</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Wheelersburg Local</t>
+          <t>Tiffin City Schools</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Scioto</t>
+          <t>Seneca</t>
         </is>
       </c>
       <c r="E51">
-        <v>335</v>
+        <v>154</v>
       </c>
       <c r="F51">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2301,29 +2301,29 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>041657</t>
+          <t>040931</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Wilson Middle School</t>
+          <t>Wheelersburg High School</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Newark City</t>
+          <t>Wheelersburg Local</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Licking</t>
+          <t>Scioto</t>
         </is>
       </c>
       <c r="E52">
-        <v>100</v>
+        <v>335</v>
       </c>
       <c r="F52">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2334,29 +2334,29 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>042341</t>
+          <t>041657</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Western Reserve High School</t>
+          <t>Wilson Middle School</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Western Reserve Local</t>
+          <t>Newark City</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Huron</t>
+          <t>Licking</t>
         </is>
       </c>
       <c r="E53">
         <v>100</v>
       </c>
       <c r="F53">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2367,24 +2367,29 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>051136</t>
+          <t>042341</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Western Reserve High School</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Western Reserve Local</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Huron</t>
         </is>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2395,24 +2400,24 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>051219</t>
+          <t>051136</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Career and Technology Educational Centers</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Career and Technology Educational Centers</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>426</v>
+        <v>234</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2423,14 +2428,24 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>052779</t>
+          <t>051219</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Career and Technology Educational Centers</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Career and Technology Educational Centers</t>
         </is>
       </c>
       <c r="E56">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>91</v>
+        <v>426</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2441,14 +2456,14 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>053686</t>
+          <t>052779</t>
         </is>
       </c>
       <c r="E57">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="F57">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2459,29 +2474,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>061820</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Marlington Middle School</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Marlington Local</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Stark</t>
+          <t>053686</t>
         </is>
       </c>
       <c r="E58">
-        <v>269</v>
+        <v>95</v>
       </c>
       <c r="F58">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2492,29 +2492,29 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>065318</t>
+          <t>061820</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Trimble Junior High</t>
+          <t>Marlington Middle School</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Trimble Local</t>
+          <t>Marlington Local</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Athens</t>
+          <t>Stark</t>
         </is>
       </c>
       <c r="E59">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="F59">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2525,29 +2525,29 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>091371</t>
+          <t>065318</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fairbanks Middle School</t>
+          <t>Trimble Junior High</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Fairbanks Local</t>
+          <t>Trimble Local</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Union</t>
+          <t>Athens</t>
         </is>
       </c>
       <c r="E60">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F60">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2558,166 +2558,199 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>124727</t>
+          <t>091371</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Gibsonburg Middle School</t>
+          <t>Fairbanks Middle School</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Gibsonburg Exempted Village</t>
+          <t>Fairbanks Local</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sandusky</t>
+          <t>Union</t>
         </is>
       </c>
       <c r="E61">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F61">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
-      </c>
-      <c r="H61">
-        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>140152</t>
+          <t>124727</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Choices Alternative School</t>
+          <t>Gibsonburg Middle School</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Canton City</t>
+          <t>Gibsonburg Exempted Village</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Stark</t>
+          <t>Sandusky</t>
         </is>
       </c>
       <c r="E62">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="F62">
+        <v>28</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H62">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>142281</t>
+          <t>140152</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>New London Middle School</t>
+          <t>Choices Alternative School</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>New London Local</t>
+          <t>Canton City</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Huron</t>
+          <t>Stark</t>
         </is>
       </c>
       <c r="E63">
-        <v>143</v>
-      </c>
-      <c r="F63">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>143644</t>
+          <t>142281</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>New London Middle School</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>New London Local</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Huron</t>
         </is>
       </c>
       <c r="E64">
-        <v>150</v>
+        <v>143</v>
+      </c>
+      <c r="F64">
+        <v>62</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>146308</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Wheelersburg Middle School</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Wheelersburg Local</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Scioto</t>
+          <t>143644</t>
         </is>
       </c>
       <c r="E65">
-        <v>207</v>
-      </c>
-      <c r="F65">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H65">
-        <v>2</v>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>146308</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Wheelersburg Middle School</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Wheelersburg Local</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Scioto</t>
+        </is>
+      </c>
+      <c r="E66">
+        <v>207</v>
+      </c>
+      <c r="F66">
+        <v>223</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>151175</t>
         </is>
       </c>
-      <c r="E66">
+      <c r="E67">
         <v>44</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <v>45</v>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2730,7 +2763,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3265,6 +3298,9 @@
           <t>11/29</t>
         </is>
       </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
       <c r="C46">
         <v>3</v>
       </c>
@@ -3332,67 +3368,67 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>12/1</t>
-        </is>
-      </c>
-      <c r="C53">
-        <v>5</v>
+          <t>12/01</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>70</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>12/10</t>
+          <t>12/1</t>
         </is>
       </c>
       <c r="C54">
-        <v>1489</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>12/11</t>
+          <t>12/10</t>
         </is>
       </c>
       <c r="C55">
-        <v>3445</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>12/12</t>
+          <t>12/11</t>
         </is>
       </c>
       <c r="C56">
-        <v>1318</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>12/13</t>
+          <t>12/12</t>
         </is>
       </c>
       <c r="C57">
-        <v>5833</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>12/14</t>
+          <t>12/13</t>
         </is>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>12/15</t>
+          <t>12/14</t>
         </is>
       </c>
       <c r="C59">
@@ -3402,130 +3438,140 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>12/16</t>
+          <t>12/15</t>
         </is>
       </c>
       <c r="C60">
-        <v>1393</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>12/17</t>
+          <t>12/16</t>
         </is>
       </c>
       <c r="C61">
-        <v>1259</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>12/18</t>
+          <t>12/17</t>
         </is>
       </c>
       <c r="C62">
-        <v>1910</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>12/19</t>
+          <t>12/18</t>
         </is>
       </c>
       <c r="C63">
-        <v>1025</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>12/2</t>
+          <t>12/19</t>
         </is>
       </c>
       <c r="C64">
-        <v>268</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>12/20</t>
+          <t>12/2</t>
         </is>
       </c>
       <c r="C65">
-        <v>957</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>12/3</t>
+          <t>12/20</t>
         </is>
       </c>
       <c r="C66">
-        <v>900</v>
+        <v>957</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>12/4</t>
+          <t>12/3</t>
         </is>
       </c>
       <c r="C67">
-        <v>2848</v>
+        <v>900</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>12/5</t>
+          <t>12/4</t>
         </is>
       </c>
       <c r="C68">
-        <v>2693</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>12/6</t>
+          <t>12/5</t>
         </is>
       </c>
       <c r="C69">
-        <v>846</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>12/7</t>
+          <t>12/6</t>
         </is>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>846</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>12/8</t>
+          <t>12/7</t>
         </is>
       </c>
       <c r="C71">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>12/8</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
           <t>12/9</t>
         </is>
       </c>
-      <c r="C72">
+      <c r="C73">
         <v>822</v>
       </c>
     </row>
@@ -3611,22 +3657,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>21.68</v>
+        <v>21.54</v>
       </c>
       <c r="C3">
-        <v>16.02</v>
+        <v>15.73</v>
       </c>
       <c r="D3">
-        <v>32.05</v>
+        <v>31.46</v>
       </c>
       <c r="E3">
-        <v>48.07</v>
+        <v>47.18</v>
       </c>
       <c r="F3">
-        <v>14.27</v>
+        <v>14.3</v>
       </c>
       <c r="G3">
-        <v>17.3</v>
+        <v>17.32</v>
       </c>
     </row>
     <row r="4">
@@ -3689,19 +3735,19 @@
         <v>17.88</v>
       </c>
       <c r="C6">
-        <v>27.67</v>
+        <v>27.66</v>
       </c>
       <c r="D6">
-        <v>55.33</v>
+        <v>55.32</v>
       </c>
       <c r="E6">
-        <v>83</v>
+        <v>82.98</v>
       </c>
       <c r="F6">
         <v>12.42</v>
       </c>
       <c r="G6">
-        <v>15.17</v>
+        <v>15.16</v>
       </c>
     </row>
     <row r="7">
@@ -3786,19 +3832,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>20.59</v>
+        <v>20.57</v>
       </c>
       <c r="C10">
-        <v>22.39</v>
+        <v>22.33</v>
       </c>
       <c r="D10">
-        <v>44.79</v>
+        <v>44.66</v>
       </c>
       <c r="E10">
-        <v>67.18000000000001</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F10">
-        <v>13.55</v>
+        <v>13.57</v>
       </c>
       <c r="G10">
         <v>16.98</v>
@@ -3811,7 +3857,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5041,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -5050,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21">
@@ -6008,7 +6054,7 @@
         <v>286</v>
       </c>
       <c r="I36">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -6026,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="O36">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37">
@@ -6764,22 +6810,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>037671</t>
+          <t>034280</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tuslaw High School</t>
+          <t>Brookside Middle School</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Tuslaw Local</t>
+          <t>Sheffield-Sheffield Lake City</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Stark</t>
+          <t>Lorain</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -6801,16 +6847,16 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="J49">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -6819,28 +6865,28 @@
         <v>0</v>
       </c>
       <c r="O49">
-        <v>138</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>040584</t>
+          <t>037671</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tiffin Middle School</t>
+          <t>Tuslaw High School</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Tiffin City Schools</t>
+          <t>Tuslaw Local</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Seneca</t>
+          <t>Stark</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -6859,19 +6905,19 @@
         </is>
       </c>
       <c r="H50">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -6880,28 +6926,28 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>040931</t>
+          <t>040584</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Wheelersburg High School</t>
+          <t>Tiffin Middle School</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Wheelersburg Local</t>
+          <t>Tiffin City Schools</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Scioto</t>
+          <t>Seneca</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -6920,49 +6966,49 @@
         </is>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51">
-        <v>335</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>041657</t>
+          <t>040931</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Wilson Middle School</t>
+          <t>Wheelersburg High School</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Newark City</t>
+          <t>Wheelersburg Local</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Licking</t>
+          <t>Scioto</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -6981,49 +7027,49 @@
         </is>
       </c>
       <c r="H52">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>100</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>042341</t>
+          <t>041657</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Western Reserve High School</t>
+          <t>Wilson Middle School</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Western Reserve Local</t>
+          <t>Newark City</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Huron</t>
+          <t>Licking</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -7042,19 +7088,19 @@
         </is>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -7069,17 +7115,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>051136</t>
+          <t>042341</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Western Reserve High School</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Western Reserve Local</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Huron</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -7104,13 +7155,13 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -7119,23 +7170,23 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>051219</t>
+          <t>051136</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Career and Technology Educational Centers</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Career and Technology Educational Centers</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -7181,7 +7232,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>052779</t>
+          <t>051219</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Career and Technology Educational Centers</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Career and Technology Educational Centers</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -7194,35 +7255,40 @@
           <t>N</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="H56">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
       <c r="O56">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>053686</t>
+          <t>052779</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -7236,49 +7302,34 @@
         </is>
       </c>
       <c r="H57">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J57">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L57">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N57">
         <v>0</v>
       </c>
       <c r="O57">
-        <v>95</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>061820</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Marlington Middle School</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Marlington Local</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Stark</t>
+          <t>053686</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -7291,25 +7342,20 @@
           <t>N</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H58">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="I58">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -7318,28 +7364,28 @@
         <v>0</v>
       </c>
       <c r="O58">
-        <v>269</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>065318</t>
+          <t>061820</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Trimble Junior High</t>
+          <t>Marlington Middle School</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Trimble Local</t>
+          <t>Marlington Local</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Athens</t>
+          <t>Stark</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -7354,14 +7400,14 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="H59">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="I59">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -7379,28 +7425,28 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>71</v>
+        <v>269</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>091371</t>
+          <t>065318</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fairbanks Middle School</t>
+          <t>Trimble Junior High</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Fairbanks Local</t>
+          <t>Trimble Local</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Union</t>
+          <t>Athens</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -7415,14 +7461,14 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H60">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -7431,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -7440,28 +7486,28 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>124727</t>
+          <t>091371</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Gibsonburg Middle School</t>
+          <t>Fairbanks Middle School</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Gibsonburg Exempted Village</t>
+          <t>Fairbanks Local</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sandusky</t>
+          <t>Union</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -7476,11 +7522,11 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="H61">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -7492,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -7501,28 +7547,28 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>140152</t>
+          <t>124727</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Choices Alternative School</t>
+          <t>Gibsonburg Middle School</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Canton City</t>
+          <t>Gibsonburg Exempted Village</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Stark</t>
+          <t>Sandusky</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -7541,49 +7587,49 @@
         </is>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>142281</t>
+          <t>140152</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>New London Middle School</t>
+          <t>Choices Alternative School</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>New London Local</t>
+          <t>Canton City</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Huron</t>
+          <t>Stark</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -7602,34 +7648,49 @@
         </is>
       </c>
       <c r="H63">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>143</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>143644</t>
+          <t>142281</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>New London Middle School</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>New London Local</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Huron</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -7642,50 +7703,40 @@
           <t>N</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="H64">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="I64">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="J64">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
       <c r="O64">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>146308</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Wheelersburg Middle School</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Wheelersburg Local</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Scioto</t>
+          <t>143644</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -7698,40 +7749,50 @@
           <t>N</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="H65">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="I65">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
       <c r="O65">
-        <v>207</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>151175</t>
+          <t>146308</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Wheelersburg Middle School</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Wheelersburg Local</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Scioto</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -7744,60 +7805,106 @@
           <t>N</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="H66">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J66">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>44</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>151175</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>10</v>
+      </c>
+      <c r="K67">
+        <v>18</v>
+      </c>
+      <c r="L67">
+        <v>7</v>
+      </c>
+      <c r="M67">
+        <v>9</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H67">
+      <c r="H68">
         <v>2725</v>
       </c>
-      <c r="I67">
-        <v>1647</v>
-      </c>
-      <c r="J67">
+      <c r="I68">
+        <v>1717</v>
+      </c>
+      <c r="J68">
         <v>3195</v>
       </c>
-      <c r="K67">
+      <c r="K68">
         <v>1455</v>
       </c>
-      <c r="L67">
-        <v>1981</v>
-      </c>
-      <c r="M67">
+      <c r="L68">
+        <v>1982</v>
+      </c>
+      <c r="M68">
         <v>680</v>
       </c>
-      <c r="N67">
+      <c r="N68">
         <v>13</v>
       </c>
-      <c r="O67">
-        <v>11696</v>
+      <c r="O68">
+        <v>11767</v>
       </c>
     </row>
   </sheetData>

--- a/ohyes_quality_report.xlsx
+++ b/ohyes_quality_report.xlsx
@@ -388,7 +388,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>11854</v>
+        <v>12189</v>
       </c>
     </row>
     <row r="3">
@@ -398,10 +398,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>11814</v>
+        <v>12137</v>
       </c>
       <c r="C3">
-        <v>99.66</v>
+        <v>99.56999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -411,10 +411,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="5">
@@ -424,10 +424,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>10530</v>
+        <v>10797</v>
       </c>
       <c r="C5">
-        <v>88.83</v>
+        <v>88.58</v>
       </c>
     </row>
     <row r="6">
@@ -437,10 +437,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>1159</v>
+        <v>1223</v>
       </c>
       <c r="C6">
-        <v>9.779999999999999</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="7">
@@ -450,10 +450,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>11790</v>
+        <v>12118</v>
       </c>
       <c r="C7">
-        <v>99.45999999999999</v>
+        <v>99.42</v>
       </c>
     </row>
     <row r="8">
@@ -463,10 +463,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>9757</v>
+        <v>9962</v>
       </c>
       <c r="C8">
-        <v>82.31</v>
+        <v>81.73</v>
       </c>
     </row>
     <row r="9">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>1234.25</v>
+        <v>1232.78</v>
       </c>
     </row>
     <row r="11">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>1339.82</v>
+        <v>1325.63</v>
       </c>
     </row>
     <row r="12">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="13">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>95.61</v>
+        <v>95.55</v>
       </c>
     </row>
     <row r="15">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>16.13</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>10689</v>
+        <v>10968</v>
       </c>
     </row>
     <row r="19">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>90.17</v>
+        <v>89.98</v>
       </c>
     </row>
     <row r="20">
@@ -591,7 +591,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="E19">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19">
         <v>127</v>
@@ -1644,17 +1644,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>025130</t>
+          <t>023846</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tuslaw Middle School</t>
+          <t>McKinley High School</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tuslaw Local</t>
+          <t>Canton City</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1663,73 +1663,76 @@
         </is>
       </c>
       <c r="E32">
-        <v>89</v>
+        <v>295</v>
+      </c>
+      <c r="F32">
+        <v>1135</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H32">
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>025155</t>
+          <t>025130</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mohawk High School</t>
+          <t>Tuslaw Middle School</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mohawk Local</t>
+          <t>Tuslaw Local</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wyandot</t>
+          <t>Stark</t>
         </is>
       </c>
       <c r="E33">
-        <v>219</v>
-      </c>
-      <c r="F33">
-        <v>234</v>
+        <v>89</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>025361</t>
+          <t>025155</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Monroeville High School</t>
+          <t>Mohawk High School</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Monroeville Local</t>
+          <t>Mohawk Local</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Huron</t>
+          <t>Wyandot</t>
         </is>
       </c>
       <c r="E34">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="F34">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1740,29 +1743,29 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>025437</t>
+          <t>025361</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Montpelier High School</t>
+          <t>Monroeville High School</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Montpelier Exempted Village</t>
+          <t>Monroeville Local</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Huron</t>
         </is>
       </c>
       <c r="E35">
-        <v>270</v>
+        <v>84</v>
       </c>
       <c r="F35">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1773,29 +1776,29 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>026104</t>
+          <t>025437</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>North Canton Middle School</t>
+          <t>Montpelier High School</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>North Canton City</t>
+          <t>Montpelier Exempted Village</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Stark</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="E36">
-        <v>580</v>
+        <v>270</v>
       </c>
       <c r="F36">
-        <v>568</v>
+        <v>251</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1806,29 +1809,29 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>026385</t>
+          <t>026104</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>North Union Middle School</t>
+          <t>North Canton Middle School</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>North Union Local School District</t>
+          <t>North Canton City</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Union</t>
+          <t>Stark</t>
         </is>
       </c>
       <c r="E37">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="F37">
-        <v>93</v>
+        <v>568</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1839,12 +1842,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>026393</t>
+          <t>026385</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>North Union High School</t>
+          <t>North Union Middle School</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1858,10 +1861,10 @@
         </is>
       </c>
       <c r="E38">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="F38">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1872,29 +1875,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>026823</t>
+          <t>026393</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>New London High School</t>
+          <t>North Union High School</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>New London Local</t>
+          <t>North Union Local School District</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Huron</t>
+          <t>Union</t>
         </is>
       </c>
       <c r="E39">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="F39">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1905,29 +1908,29 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>026955</t>
+          <t>026823</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>New Riegel High School</t>
+          <t>New London High School</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>New Riegel Local</t>
+          <t>New London Local</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Seneca</t>
+          <t>Huron</t>
         </is>
       </c>
       <c r="E40">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F40">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1938,65 +1941,62 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>027011</t>
+          <t>026955</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Newark High School</t>
+          <t>New Riegel High School</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Newark City</t>
+          <t>New Riegel Local</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Licking</t>
+          <t>Seneca</t>
         </is>
       </c>
       <c r="E41">
-        <v>396</v>
+        <v>83</v>
       </c>
       <c r="F41">
-        <v>690</v>
+        <v>70</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
-      </c>
-      <c r="H41">
-        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>028068</t>
+          <t>027011</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Norwalk High School</t>
+          <t>Newark High School</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Norwalk City</t>
+          <t>Newark City</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Huron</t>
+          <t>Licking</t>
         </is>
       </c>
       <c r="E42">
-        <v>459</v>
+        <v>396</v>
       </c>
       <c r="F42">
-        <v>528</v>
+        <v>690</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2004,68 +2004,71 @@
         </is>
       </c>
       <c r="H42">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>028183</t>
+          <t>028068</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Oak Harbor High School</t>
+          <t>Norwalk High School</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Benton Carroll Salem Local</t>
+          <t>Norwalk City</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Ottawa</t>
+          <t>Huron</t>
         </is>
       </c>
       <c r="E43">
         <v>459</v>
       </c>
       <c r="F43">
-        <v>408</v>
+        <v>528</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
+      </c>
+      <c r="H43">
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>029538</t>
+          <t>028183</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Peebles High School</t>
+          <t>Oak Harbor High School</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Adams County Ohio Valley Local</t>
+          <t>Benton Carroll Salem Local</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Ottawa</t>
         </is>
       </c>
       <c r="E44">
-        <v>112</v>
+        <v>459</v>
       </c>
       <c r="F44">
-        <v>225</v>
+        <v>408</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2076,29 +2079,29 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>030304</t>
+          <t>029538</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pleasant High School</t>
+          <t>Peebles High School</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pleasant Local</t>
+          <t>Adams County Ohio Valley Local</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Marion</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="E45">
-        <v>322</v>
+        <v>112</v>
       </c>
       <c r="F45">
-        <v>57</v>
+        <v>225</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2109,29 +2112,29 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>030833</t>
+          <t>030304</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Port Clinton Middle School</t>
+          <t>Pleasant High School</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Port Clinton City</t>
+          <t>Pleasant Local</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Ottawa</t>
+          <t>Marion</t>
         </is>
       </c>
       <c r="E46">
-        <v>86</v>
+        <v>322</v>
       </c>
       <c r="F46">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2142,12 +2145,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>030841</t>
+          <t>030833</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Port Clinton High School</t>
+          <t>Port Clinton Middle School</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2161,10 +2164,10 @@
         </is>
       </c>
       <c r="E47">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="F47">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2175,155 +2178,155 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>033563</t>
+          <t>030841</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sandy Valley High School</t>
+          <t>Port Clinton High School</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sandy Valley Local</t>
+          <t>Port Clinton City</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Stark</t>
+          <t>Ottawa</t>
         </is>
       </c>
       <c r="E48">
-        <v>203</v>
+        <v>137</v>
+      </c>
+      <c r="F48">
+        <v>178</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>034280</t>
+          <t>033563</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Brookside Middle School</t>
+          <t>Sandy Valley High School</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sheffield-Sheffield Lake City</t>
+          <t>Sandy Valley Local</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Lorain</t>
+          <t>Stark</t>
         </is>
       </c>
       <c r="E49">
-        <v>69</v>
-      </c>
-      <c r="F49">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>037671</t>
+          <t>034280</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tuslaw High School</t>
+          <t>Brookside Middle School</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Tuslaw Local</t>
+          <t>Sheffield-Sheffield Lake City</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Stark</t>
+          <t>Lorain</t>
         </is>
       </c>
       <c r="E50">
-        <v>138</v>
+        <v>105</v>
+      </c>
+      <c r="F50">
+        <v>222</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>040584</t>
+          <t>037671</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tiffin Middle School</t>
+          <t>Tuslaw High School</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Tiffin City Schools</t>
+          <t>Tuslaw Local</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Seneca</t>
+          <t>Stark</t>
         </is>
       </c>
       <c r="E51">
-        <v>154</v>
-      </c>
-      <c r="F51">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>040931</t>
+          <t>040584</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Wheelersburg High School</t>
+          <t>Tiffin Middle School</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Wheelersburg Local</t>
+          <t>Tiffin City Schools</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Scioto</t>
+          <t>Seneca</t>
         </is>
       </c>
       <c r="E52">
-        <v>335</v>
+        <v>154</v>
       </c>
       <c r="F52">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2334,29 +2337,29 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>041657</t>
+          <t>040931</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Wilson Middle School</t>
+          <t>Wheelersburg High School</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Newark City</t>
+          <t>Wheelersburg Local</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Licking</t>
+          <t>Scioto</t>
         </is>
       </c>
       <c r="E53">
-        <v>100</v>
+        <v>335</v>
       </c>
       <c r="F53">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2367,29 +2370,29 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>042341</t>
+          <t>041657</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Western Reserve High School</t>
+          <t>Wilson Middle School</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Western Reserve Local</t>
+          <t>Newark City</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Huron</t>
+          <t>Licking</t>
         </is>
       </c>
       <c r="E54">
         <v>100</v>
       </c>
       <c r="F54">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2400,24 +2403,29 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>051136</t>
+          <t>042341</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Western Reserve High School</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Western Reserve Local</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Huron</t>
         </is>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F55">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2428,24 +2436,24 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>051219</t>
+          <t>051136</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Career and Technology Educational Centers</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Career and Technology Educational Centers</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>426</v>
+        <v>234</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2456,14 +2464,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>052779</t>
+          <t>051219</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Career and Technology Educational Centers</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Career and Technology Educational Centers</t>
         </is>
       </c>
       <c r="E57">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>91</v>
+        <v>426</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2474,14 +2492,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>053686</t>
+          <t>052779</t>
         </is>
       </c>
       <c r="E58">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="F58">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2492,29 +2510,14 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>061820</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Marlington Middle School</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Marlington Local</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Stark</t>
+          <t>053686</t>
         </is>
       </c>
       <c r="E59">
-        <v>269</v>
+        <v>95</v>
       </c>
       <c r="F59">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2525,29 +2528,29 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>065318</t>
+          <t>061820</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Trimble Junior High</t>
+          <t>Marlington Middle School</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Trimble Local</t>
+          <t>Marlington Local</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Athens</t>
+          <t>Stark</t>
         </is>
       </c>
       <c r="E60">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="F60">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2558,29 +2561,29 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>091371</t>
+          <t>065318</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fairbanks Middle School</t>
+          <t>Trimble Junior High</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fairbanks Local</t>
+          <t>Trimble Local</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Union</t>
+          <t>Athens</t>
         </is>
       </c>
       <c r="E61">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F61">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2591,110 +2594,128 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>124727</t>
+          <t>065508</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Gibsonburg Middle School</t>
+          <t>Crenshaw Middle School</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Gibsonburg Exempted Village</t>
+          <t>Canton City</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sandusky</t>
+          <t>Stark</t>
         </is>
       </c>
       <c r="E62">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>28</v>
+        <v>597</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
-      </c>
-      <c r="H62">
-        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>140152</t>
+          <t>091371</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Choices Alternative School</t>
+          <t>Fairbanks Middle School</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Canton City</t>
+          <t>Fairbanks Local</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Stark</t>
+          <t>Union</t>
         </is>
       </c>
       <c r="E63">
-        <v>57</v>
+        <v>82</v>
+      </c>
+      <c r="F63">
+        <v>58</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>142281</t>
+          <t>124727</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>New London Middle School</t>
+          <t>Gibsonburg Middle School</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>New London Local</t>
+          <t>Gibsonburg Exempted Village</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Huron</t>
+          <t>Sandusky</t>
         </is>
       </c>
       <c r="E64">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F64">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
+      </c>
+      <c r="H64">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>143644</t>
+          <t>140152</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Choices Alternative School</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Canton City</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Stark</t>
         </is>
       </c>
       <c r="E65">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2705,52 +2726,100 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>146308</t>
+          <t>142281</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Wheelersburg Middle School</t>
+          <t>New London Middle School</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Wheelersburg Local</t>
+          <t>New London Local</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Scioto</t>
+          <t>Huron</t>
         </is>
       </c>
       <c r="E66">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="F66">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
-      </c>
-      <c r="H66">
-        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>143644</t>
+        </is>
+      </c>
+      <c r="E67">
+        <v>150</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>146308</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Wheelersburg Middle School</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Wheelersburg Local</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Scioto</t>
+        </is>
+      </c>
+      <c r="E68">
+        <v>207</v>
+      </c>
+      <c r="F68">
+        <v>223</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
           <t>151175</t>
         </is>
       </c>
-      <c r="E67">
+      <c r="E69">
         <v>44</v>
       </c>
-      <c r="F67">
+      <c r="F69">
         <v>45</v>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3372,7 +3441,7 @@
         </is>
       </c>
       <c r="B53">
-        <v>70</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54">
@@ -3635,19 +3704,19 @@
         <v>25.19</v>
       </c>
       <c r="C2">
-        <v>18.16</v>
+        <v>18.15</v>
       </c>
       <c r="D2">
-        <v>36.31</v>
+        <v>36.3</v>
       </c>
       <c r="E2">
-        <v>54.47</v>
+        <v>54.45</v>
       </c>
       <c r="F2">
         <v>17.03</v>
       </c>
       <c r="G2">
-        <v>20.8</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="3">
@@ -3657,22 +3726,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>21.54</v>
+        <v>21.53</v>
       </c>
       <c r="C3">
-        <v>15.73</v>
+        <v>15.58</v>
       </c>
       <c r="D3">
-        <v>31.46</v>
+        <v>31.17</v>
       </c>
       <c r="E3">
-        <v>47.18</v>
+        <v>46.75</v>
       </c>
       <c r="F3">
-        <v>14.3</v>
+        <v>14.34</v>
       </c>
       <c r="G3">
-        <v>17.32</v>
+        <v>17.34</v>
       </c>
     </row>
     <row r="4">
@@ -3682,22 +3751,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>20.77</v>
+        <v>20.75</v>
       </c>
       <c r="C4">
-        <v>29.03</v>
+        <v>28.31</v>
       </c>
       <c r="D4">
-        <v>58.05</v>
+        <v>56.62</v>
       </c>
       <c r="E4">
-        <v>87.08</v>
+        <v>84.93000000000001</v>
       </c>
       <c r="F4">
-        <v>13.56</v>
+        <v>13.63</v>
       </c>
       <c r="G4">
-        <v>16.67</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="5">
@@ -3707,22 +3776,22 @@
         </is>
       </c>
       <c r="B5">
-        <v>16.66</v>
+        <v>16.73</v>
       </c>
       <c r="C5">
-        <v>9.16</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="D5">
-        <v>18.32</v>
+        <v>18.28</v>
       </c>
       <c r="E5">
-        <v>27.48</v>
+        <v>27.41</v>
       </c>
       <c r="F5">
-        <v>12.44</v>
+        <v>12.48</v>
       </c>
       <c r="G5">
-        <v>15.23</v>
+        <v>15.29</v>
       </c>
     </row>
     <row r="6">
@@ -3732,22 +3801,22 @@
         </is>
       </c>
       <c r="B6">
-        <v>17.88</v>
+        <v>17.85</v>
       </c>
       <c r="C6">
-        <v>27.66</v>
+        <v>27.39</v>
       </c>
       <c r="D6">
-        <v>55.32</v>
+        <v>54.77</v>
       </c>
       <c r="E6">
-        <v>82.98</v>
+        <v>82.16</v>
       </c>
       <c r="F6">
         <v>12.42</v>
       </c>
       <c r="G6">
-        <v>15.16</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="7">
@@ -3757,13 +3826,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>16.34</v>
+        <v>16.33</v>
       </c>
       <c r="C7">
         <v>10.22</v>
       </c>
       <c r="D7">
-        <v>20.44</v>
+        <v>20.43</v>
       </c>
       <c r="E7">
         <v>30.65</v>
@@ -3807,22 +3876,22 @@
         </is>
       </c>
       <c r="B9">
-        <v>9.18</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="C9">
-        <v>27.55</v>
+        <v>27.4</v>
       </c>
       <c r="D9">
-        <v>55.1</v>
+        <v>54.79</v>
       </c>
       <c r="E9">
-        <v>82.65000000000001</v>
+        <v>82.19</v>
       </c>
       <c r="F9">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G9">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="10">
@@ -3832,22 +3901,22 @@
         </is>
       </c>
       <c r="B10">
-        <v>20.57</v>
+        <v>20.55</v>
       </c>
       <c r="C10">
-        <v>22.33</v>
+        <v>22.09</v>
       </c>
       <c r="D10">
-        <v>44.66</v>
+        <v>44.19</v>
       </c>
       <c r="E10">
-        <v>66.98999999999999</v>
+        <v>66.28</v>
       </c>
       <c r="F10">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="G10">
-        <v>16.98</v>
+        <v>17.03</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3926,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5026,7 +5095,7 @@
         <v>23</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M19">
         <v>6</v>
@@ -5035,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -5773,17 +5842,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>025130</t>
+          <t>023846</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tuslaw Middle School</t>
+          <t>McKinley High School</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tuslaw Local</t>
+          <t>Canton City</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5807,49 +5876,49 @@
         </is>
       </c>
       <c r="H32">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>89</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>025155</t>
+          <t>025130</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mohawk High School</t>
+          <t>Tuslaw Middle School</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mohawk Local</t>
+          <t>Tuslaw Local</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wyandot</t>
+          <t>Stark</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -5868,49 +5937,49 @@
         </is>
       </c>
       <c r="H33">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="I33">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>219</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>025361</t>
+          <t>025155</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Monroeville High School</t>
+          <t>Mohawk High School</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Monroeville Local</t>
+          <t>Mohawk Local</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Huron</t>
+          <t>Wyandot</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -5929,49 +5998,49 @@
         </is>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J34">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>84</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>025437</t>
+          <t>025361</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Montpelier High School</t>
+          <t>Monroeville High School</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Montpelier Exempted Village</t>
+          <t>Monroeville Local</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Huron</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -5990,49 +6059,49 @@
         </is>
       </c>
       <c r="H35">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="K35">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>270</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>026104</t>
+          <t>025437</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>North Canton Middle School</t>
+          <t>Montpelier High School</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>North Canton City</t>
+          <t>Montpelier Exempted Village</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Stark</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -6051,49 +6120,49 @@
         </is>
       </c>
       <c r="H36">
-        <v>286</v>
+        <v>62</v>
       </c>
       <c r="I36">
-        <v>293</v>
+        <v>58</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>580</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>026385</t>
+          <t>026104</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>North Union Middle School</t>
+          <t>North Canton Middle School</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>North Union Local School District</t>
+          <t>North Canton City</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Union</t>
+          <t>Stark</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -6112,10 +6181,10 @@
         </is>
       </c>
       <c r="H37">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -6133,18 +6202,18 @@
         <v>1</v>
       </c>
       <c r="O37">
-        <v>80</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>026393</t>
+          <t>026385</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>North Union High School</t>
+          <t>North Union Middle School</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6173,49 +6242,49 @@
         </is>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
         <v>1</v>
       </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
       <c r="O38">
-        <v>111</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>026823</t>
+          <t>026393</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>New London High School</t>
+          <t>North Union High School</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>New London Local</t>
+          <t>North Union Local School District</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Huron</t>
+          <t>Union</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -6240,43 +6309,43 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>78</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>026955</t>
+          <t>026823</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>New Riegel High School</t>
+          <t>New London High School</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>New Riegel Local</t>
+          <t>New London Local</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Seneca</t>
+          <t>Huron</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -6295,19 +6364,19 @@
         </is>
       </c>
       <c r="H40">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -6316,28 +6385,28 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>027011</t>
+          <t>026955</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Newark High School</t>
+          <t>New Riegel High School</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Newark City</t>
+          <t>New Riegel Local</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Licking</t>
+          <t>Seneca</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -6356,49 +6425,49 @@
         </is>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>274</v>
+        <v>28</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>396</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>028068</t>
+          <t>027011</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Norwalk High School</t>
+          <t>Newark High School</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Norwalk City</t>
+          <t>Newark City</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Huron</t>
+          <t>Licking</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -6413,7 +6482,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H42">
@@ -6423,43 +6492,43 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>135</v>
+        <v>274</v>
       </c>
       <c r="K42">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="M42">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O42">
-        <v>459</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>028183</t>
+          <t>028068</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Oak Harbor High School</t>
+          <t>Norwalk High School</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Benton Carroll Salem Local</t>
+          <t>Norwalk City</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Ottawa</t>
+          <t>Huron</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -6478,22 +6547,22 @@
         </is>
       </c>
       <c r="H43">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="K43">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="L43">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="M43">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -6505,22 +6574,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>029538</t>
+          <t>028183</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Peebles High School</t>
+          <t>Oak Harbor High School</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Adams County Ohio Valley Local</t>
+          <t>Benton Carroll Salem Local</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Ottawa</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -6535,53 +6604,53 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="H44">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="I44">
+        <v>109</v>
+      </c>
+      <c r="J44">
+        <v>64</v>
+      </c>
+      <c r="K44">
+        <v>68</v>
+      </c>
+      <c r="L44">
         <v>60</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
       <c r="M44">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>112</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>030304</t>
+          <t>029538</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pleasant High School</t>
+          <t>Peebles High School</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pleasant Local</t>
+          <t>Adams County Ohio Valley Local</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Marion</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -6596,23 +6665,23 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H45">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="I45">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="J45">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -6621,28 +6690,28 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <v>322</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>030833</t>
+          <t>030304</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Port Clinton Middle School</t>
+          <t>Pleasant High School</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Port Clinton City</t>
+          <t>Pleasant Local</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Ottawa</t>
+          <t>Marion</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -6657,23 +6726,23 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="H46">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -6682,18 +6751,18 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <v>86</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>030841</t>
+          <t>030833</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Port Clinton High School</t>
+          <t>Port Clinton Middle School</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6722,19 +6791,19 @@
         </is>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -6743,28 +6812,28 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>137</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>033563</t>
+          <t>030841</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sandy Valley High School</t>
+          <t>Port Clinton High School</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sandy Valley Local</t>
+          <t>Port Clinton City</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Stark</t>
+          <t>Ottawa</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -6789,43 +6858,43 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K48">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="L48">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="M48">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>203</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>034280</t>
+          <t>033563</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Brookside Middle School</t>
+          <t>Sandy Valley High School</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sheffield-Sheffield Lake City</t>
+          <t>Sandy Valley Local</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Lorain</t>
+          <t>Stark</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -6847,46 +6916,46 @@
         <v>0</v>
       </c>
       <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>74</v>
+      </c>
+      <c r="K49">
         <v>69</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
       <c r="L49">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49">
-        <v>69</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>037671</t>
+          <t>034280</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tuslaw High School</t>
+          <t>Brookside Middle School</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Tuslaw Local</t>
+          <t>Sheffield-Sheffield Lake City</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Stark</t>
+          <t>Lorain</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -6908,16 +6977,16 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J50">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -6926,28 +6995,28 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>138</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>040584</t>
+          <t>037671</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tiffin Middle School</t>
+          <t>Tuslaw High School</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Tiffin City Schools</t>
+          <t>Tuslaw Local</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Seneca</t>
+          <t>Stark</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -6966,19 +7035,19 @@
         </is>
       </c>
       <c r="H51">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -6987,28 +7056,28 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>040931</t>
+          <t>040584</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Wheelersburg High School</t>
+          <t>Tiffin Middle School</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Wheelersburg Local</t>
+          <t>Tiffin City Schools</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Scioto</t>
+          <t>Seneca</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -7027,49 +7096,49 @@
         </is>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52">
-        <v>335</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>041657</t>
+          <t>040931</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Wilson Middle School</t>
+          <t>Wheelersburg High School</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Newark City</t>
+          <t>Wheelersburg Local</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Licking</t>
+          <t>Scioto</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -7088,49 +7157,49 @@
         </is>
       </c>
       <c r="H53">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>100</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>042341</t>
+          <t>041657</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Western Reserve High School</t>
+          <t>Wilson Middle School</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Western Reserve Local</t>
+          <t>Newark City</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Huron</t>
+          <t>Licking</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -7149,19 +7218,19 @@
         </is>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -7176,17 +7245,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>051136</t>
+          <t>042341</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Western Reserve High School</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Western Reserve Local</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Huron</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -7211,13 +7285,13 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -7226,23 +7300,23 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>051219</t>
+          <t>051136</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Career and Technology Educational Centers</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Career and Technology Educational Centers</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -7288,7 +7362,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>052779</t>
+          <t>051219</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Career and Technology Educational Centers</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Career and Technology Educational Centers</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -7301,35 +7385,40 @@
           <t>N</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="H57">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="N57">
         <v>0</v>
       </c>
       <c r="O57">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>053686</t>
+          <t>052779</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -7343,49 +7432,34 @@
         </is>
       </c>
       <c r="H58">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J58">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L58">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N58">
         <v>0</v>
       </c>
       <c r="O58">
-        <v>95</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>061820</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Marlington Middle School</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Marlington Local</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Stark</t>
+          <t>053686</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -7398,25 +7472,20 @@
           <t>N</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H59">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="I59">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -7425,28 +7494,28 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>269</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>065318</t>
+          <t>061820</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Trimble Junior High</t>
+          <t>Marlington Middle School</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Trimble Local</t>
+          <t>Marlington Local</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Athens</t>
+          <t>Stark</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -7461,14 +7530,14 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="H60">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="I60">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -7486,28 +7555,28 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>71</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>091371</t>
+          <t>065318</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fairbanks Middle School</t>
+          <t>Trimble Junior High</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fairbanks Local</t>
+          <t>Trimble Local</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Union</t>
+          <t>Athens</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -7522,14 +7591,14 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H61">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -7538,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -7547,28 +7616,28 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>124727</t>
+          <t>065508</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Gibsonburg Middle School</t>
+          <t>Crenshaw Middle School</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Gibsonburg Exempted Village</t>
+          <t>Canton City</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sandusky</t>
+          <t>Stark</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -7587,7 +7656,7 @@
         </is>
       </c>
       <c r="H62">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -7608,28 +7677,28 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>140152</t>
+          <t>091371</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Choices Alternative School</t>
+          <t>Fairbanks Middle School</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Canton City</t>
+          <t>Fairbanks Local</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Stark</t>
+          <t>Union</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -7644,53 +7713,53 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M63">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>142281</t>
+          <t>124727</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>New London Middle School</t>
+          <t>Gibsonburg Middle School</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>New London Local</t>
+          <t>Gibsonburg Exempted Village</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Huron</t>
+          <t>Sandusky</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -7709,10 +7778,10 @@
         </is>
       </c>
       <c r="H64">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="I64">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -7730,13 +7799,28 @@
         <v>0</v>
       </c>
       <c r="O64">
-        <v>143</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>143644</t>
+          <t>140152</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Choices Alternative School</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Canton City</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Stark</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -7749,50 +7833,55 @@
           <t>N</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="H65">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="K65">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="L65">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M65">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>150</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>146308</t>
+          <t>142281</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Wheelersburg Middle School</t>
+          <t>New London Middle School</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Wheelersburg Local</t>
+          <t>New London Local</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Scioto</t>
+          <t>Huron</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -7811,10 +7900,10 @@
         </is>
       </c>
       <c r="H66">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="I66">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -7826,19 +7915,19 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>207</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>151175</t>
+          <t>143644</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -7852,19 +7941,19 @@
         </is>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J67">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="K67">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="L67">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M67">
         <v>9</v>
@@ -7873,38 +7962,140 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <v>44</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>146308</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Wheelersburg Middle School</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Wheelersburg Local</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Scioto</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H68">
+        <v>107</v>
+      </c>
+      <c r="I68">
+        <v>99</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>151175</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>10</v>
+      </c>
+      <c r="K69">
+        <v>18</v>
+      </c>
+      <c r="L69">
+        <v>7</v>
+      </c>
+      <c r="M69">
+        <v>9</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H68">
-        <v>2725</v>
-      </c>
-      <c r="I68">
-        <v>1717</v>
-      </c>
-      <c r="J68">
-        <v>3195</v>
-      </c>
-      <c r="K68">
-        <v>1455</v>
-      </c>
-      <c r="L68">
-        <v>1982</v>
-      </c>
-      <c r="M68">
-        <v>680</v>
-      </c>
-      <c r="N68">
+      <c r="H70">
+        <v>2727</v>
+      </c>
+      <c r="I70">
+        <v>1754</v>
+      </c>
+      <c r="J70">
+        <v>3398</v>
+      </c>
+      <c r="K70">
+        <v>1504</v>
+      </c>
+      <c r="L70">
+        <v>2024</v>
+      </c>
+      <c r="M70">
+        <v>681</v>
+      </c>
+      <c r="N70">
         <v>13</v>
       </c>
-      <c r="O68">
-        <v>11767</v>
+      <c r="O70">
+        <v>12101</v>
       </c>
     </row>
   </sheetData>
